--- a/Database/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>2020-04-29</t>
+  </si>
+  <si>
+    <t>2020-04-30</t>
   </si>
 </sst>
 </file>
@@ -570,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3387,6 +3390,59 @@
         <v>68</v>
       </c>
     </row>
+    <row r="54" spans="1:17">
+      <c r="A54" t="n">
+        <v>279</v>
+      </c>
+      <c r="B54" t="n">
+        <v>198</v>
+      </c>
+      <c r="C54" t="n">
+        <v>546</v>
+      </c>
+      <c r="D54" t="n">
+        <v>43</v>
+      </c>
+      <c r="E54" t="n">
+        <v>76</v>
+      </c>
+      <c r="F54" t="n">
+        <v>559</v>
+      </c>
+      <c r="G54" t="n">
+        <v>9625</v>
+      </c>
+      <c r="H54" t="n">
+        <v>108</v>
+      </c>
+      <c r="I54" t="n">
+        <v>393</v>
+      </c>
+      <c r="J54" t="n">
+        <v>768</v>
+      </c>
+      <c r="K54" t="n">
+        <v>727</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1293</v>
+      </c>
+      <c r="M54" t="n">
+        <v>189</v>
+      </c>
+      <c r="N54" t="n">
+        <v>487</v>
+      </c>
+      <c r="O54" t="n">
+        <v>7</v>
+      </c>
+      <c r="P54" t="n">
+        <v>725</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>2020-04-30</t>
+  </si>
+  <si>
+    <t>2020-05-01</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3357,7 +3360,7 @@
         <v>526</v>
       </c>
       <c r="G53" t="n">
-        <v>8639</v>
+        <v>8889</v>
       </c>
       <c r="H53" t="n">
         <v>104</v>
@@ -3441,6 +3444,59 @@
       </c>
       <c r="Q54" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" t="n">
+        <v>297</v>
+      </c>
+      <c r="B55" t="n">
+        <v>200</v>
+      </c>
+      <c r="C55" t="n">
+        <v>589</v>
+      </c>
+      <c r="D55" t="n">
+        <v>43</v>
+      </c>
+      <c r="E55" t="n">
+        <v>77</v>
+      </c>
+      <c r="F55" t="n">
+        <v>568</v>
+      </c>
+      <c r="G55" t="n">
+        <v>10516</v>
+      </c>
+      <c r="H55" t="n">
+        <v>109</v>
+      </c>
+      <c r="I55" t="n">
+        <v>394</v>
+      </c>
+      <c r="J55" t="n">
+        <v>768</v>
+      </c>
+      <c r="K55" t="n">
+        <v>729</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1295</v>
+      </c>
+      <c r="M55" t="n">
+        <v>189</v>
+      </c>
+      <c r="N55" t="n">
+        <v>501</v>
+      </c>
+      <c r="O55" t="n">
+        <v>7</v>
+      </c>
+      <c r="P55" t="n">
+        <v>726</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Database/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>2020-05-01</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
   </si>
 </sst>
 </file>
@@ -576,7 +579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3499,6 +3502,59 @@
         <v>70</v>
       </c>
     </row>
+    <row r="56" spans="1:17">
+      <c r="A56" t="n">
+        <v>307</v>
+      </c>
+      <c r="B56" t="n">
+        <v>212</v>
+      </c>
+      <c r="C56" t="n">
+        <v>679</v>
+      </c>
+      <c r="D56" t="n">
+        <v>59</v>
+      </c>
+      <c r="E56" t="n">
+        <v>78</v>
+      </c>
+      <c r="F56" t="n">
+        <v>614</v>
+      </c>
+      <c r="G56" t="n">
+        <v>11661</v>
+      </c>
+      <c r="H56" t="n">
+        <v>120</v>
+      </c>
+      <c r="I56" t="n">
+        <v>396</v>
+      </c>
+      <c r="J56" t="n">
+        <v>776</v>
+      </c>
+      <c r="K56" t="n">
+        <v>751</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1314</v>
+      </c>
+      <c r="M56" t="n">
+        <v>196</v>
+      </c>
+      <c r="N56" t="n">
+        <v>513</v>
+      </c>
+      <c r="O56" t="n">
+        <v>7</v>
+      </c>
+      <c r="P56" t="n">
+        <v>752</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
   </si>
 </sst>
 </file>
@@ -579,7 +582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3555,6 +3558,59 @@
         <v>71</v>
       </c>
     </row>
+    <row r="57" spans="1:17">
+      <c r="A57" t="n">
+        <v>308</v>
+      </c>
+      <c r="B57" t="n">
+        <v>272</v>
+      </c>
+      <c r="C57" t="n">
+        <v>740</v>
+      </c>
+      <c r="D57" t="n">
+        <v>67</v>
+      </c>
+      <c r="E57" t="n">
+        <v>88</v>
+      </c>
+      <c r="F57" t="n">
+        <v>638</v>
+      </c>
+      <c r="G57" t="n">
+        <v>12656</v>
+      </c>
+      <c r="H57" t="n">
+        <v>125</v>
+      </c>
+      <c r="I57" t="n">
+        <v>397</v>
+      </c>
+      <c r="J57" t="n">
+        <v>786</v>
+      </c>
+      <c r="K57" t="n">
+        <v>759</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1328</v>
+      </c>
+      <c r="M57" t="n">
+        <v>198</v>
+      </c>
+      <c r="N57" t="n">
+        <v>517</v>
+      </c>
+      <c r="O57" t="n">
+        <v>7</v>
+      </c>
+      <c r="P57" t="n">
+        <v>777</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>2020-05-04</t>
   </si>
 </sst>
 </file>
@@ -582,7 +585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3611,6 +3614,59 @@
         <v>72</v>
       </c>
     </row>
+    <row r="58" spans="1:17">
+      <c r="A58" t="n">
+        <v>308</v>
+      </c>
+      <c r="B58" t="n">
+        <v>295</v>
+      </c>
+      <c r="C58" t="n">
+        <v>760</v>
+      </c>
+      <c r="D58" t="n">
+        <v>70</v>
+      </c>
+      <c r="E58" t="n">
+        <v>91</v>
+      </c>
+      <c r="F58" t="n">
+        <v>656</v>
+      </c>
+      <c r="G58" t="n">
+        <v>13528</v>
+      </c>
+      <c r="H58" t="n">
+        <v>131</v>
+      </c>
+      <c r="I58" t="n">
+        <v>399</v>
+      </c>
+      <c r="J58" t="n">
+        <v>787</v>
+      </c>
+      <c r="K58" t="n">
+        <v>762</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1331</v>
+      </c>
+      <c r="M58" t="n">
+        <v>199</v>
+      </c>
+      <c r="N58" t="n">
+        <v>524</v>
+      </c>
+      <c r="O58" t="n">
+        <v>7</v>
+      </c>
+      <c r="P58" t="n">
+        <v>795</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>2020-05-04</t>
+  </si>
+  <si>
+    <t>2020-05-05</t>
   </si>
 </sst>
 </file>
@@ -585,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3667,6 +3670,59 @@
         <v>73</v>
       </c>
     </row>
+    <row r="59" spans="1:17">
+      <c r="A59" t="n">
+        <v>315</v>
+      </c>
+      <c r="B59" t="n">
+        <v>322</v>
+      </c>
+      <c r="C59" t="n">
+        <v>811</v>
+      </c>
+      <c r="D59" t="n">
+        <v>78</v>
+      </c>
+      <c r="E59" t="n">
+        <v>97</v>
+      </c>
+      <c r="F59" t="n">
+        <v>687</v>
+      </c>
+      <c r="G59" t="n">
+        <v>14707</v>
+      </c>
+      <c r="H59" t="n">
+        <v>136</v>
+      </c>
+      <c r="I59" t="n">
+        <v>408</v>
+      </c>
+      <c r="J59" t="n">
+        <v>789</v>
+      </c>
+      <c r="K59" t="n">
+        <v>774</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1352</v>
+      </c>
+      <c r="M59" t="n">
+        <v>199</v>
+      </c>
+      <c r="N59" t="n">
+        <v>525</v>
+      </c>
+      <c r="O59" t="n">
+        <v>7</v>
+      </c>
+      <c r="P59" t="n">
+        <v>809</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>2020-05-05</t>
+  </si>
+  <si>
+    <t>2020-05-06</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3723,6 +3726,59 @@
         <v>74</v>
       </c>
     </row>
+    <row r="60" spans="1:17">
+      <c r="A60" t="n">
+        <v>318</v>
+      </c>
+      <c r="B60" t="n">
+        <v>339</v>
+      </c>
+      <c r="C60" t="n">
+        <v>855</v>
+      </c>
+      <c r="D60" t="n">
+        <v>80</v>
+      </c>
+      <c r="E60" t="n">
+        <v>97</v>
+      </c>
+      <c r="F60" t="n">
+        <v>716</v>
+      </c>
+      <c r="G60" t="n">
+        <v>15582</v>
+      </c>
+      <c r="H60" t="n">
+        <v>145</v>
+      </c>
+      <c r="I60" t="n">
+        <v>408</v>
+      </c>
+      <c r="J60" t="n">
+        <v>791</v>
+      </c>
+      <c r="K60" t="n">
+        <v>789</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1362</v>
+      </c>
+      <c r="M60" t="n">
+        <v>200</v>
+      </c>
+      <c r="N60" t="n">
+        <v>541</v>
+      </c>
+      <c r="O60" t="n">
+        <v>7</v>
+      </c>
+      <c r="P60" t="n">
+        <v>818</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>2020-05-06</t>
+  </si>
+  <si>
+    <t>2020-05-07</t>
   </si>
 </sst>
 </file>
@@ -591,7 +594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3779,6 +3782,59 @@
         <v>75</v>
       </c>
     </row>
+    <row r="61" spans="1:17">
+      <c r="A61" t="n">
+        <v>325</v>
+      </c>
+      <c r="B61" t="n">
+        <v>417</v>
+      </c>
+      <c r="C61" t="n">
+        <v>895</v>
+      </c>
+      <c r="D61" t="n">
+        <v>87</v>
+      </c>
+      <c r="E61" t="n">
+        <v>100</v>
+      </c>
+      <c r="F61" t="n">
+        <v>781</v>
+      </c>
+      <c r="G61" t="n">
+        <v>16828</v>
+      </c>
+      <c r="H61" t="n">
+        <v>151</v>
+      </c>
+      <c r="I61" t="n">
+        <v>414</v>
+      </c>
+      <c r="J61" t="n">
+        <v>793</v>
+      </c>
+      <c r="K61" t="n">
+        <v>814</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1385</v>
+      </c>
+      <c r="M61" t="n">
+        <v>202</v>
+      </c>
+      <c r="N61" t="n">
+        <v>545</v>
+      </c>
+      <c r="O61" t="n">
+        <v>8</v>
+      </c>
+      <c r="P61" t="n">
+        <v>836</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>2020-05-07</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
   </si>
 </sst>
 </file>
@@ -594,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3835,6 +3838,59 @@
         <v>76</v>
       </c>
     </row>
+    <row r="62" spans="1:17">
+      <c r="A62" t="n">
+        <v>327</v>
+      </c>
+      <c r="B62" t="n">
+        <v>459</v>
+      </c>
+      <c r="C62" t="n">
+        <v>923</v>
+      </c>
+      <c r="D62" t="n">
+        <v>88</v>
+      </c>
+      <c r="E62" t="n">
+        <v>111</v>
+      </c>
+      <c r="F62" t="n">
+        <v>828</v>
+      </c>
+      <c r="G62" t="n">
+        <v>17979</v>
+      </c>
+      <c r="H62" t="n">
+        <v>167</v>
+      </c>
+      <c r="I62" t="n">
+        <v>425</v>
+      </c>
+      <c r="J62" t="n">
+        <v>794</v>
+      </c>
+      <c r="K62" t="n">
+        <v>842</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1403</v>
+      </c>
+      <c r="M62" t="n">
+        <v>203</v>
+      </c>
+      <c r="N62" t="n">
+        <v>548</v>
+      </c>
+      <c r="O62" t="n">
+        <v>8</v>
+      </c>
+      <c r="P62" t="n">
+        <v>867</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
   </si>
 </sst>
 </file>
@@ -597,7 +600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3891,6 +3894,59 @@
         <v>77</v>
       </c>
     </row>
+    <row r="63" spans="1:17">
+      <c r="A63" t="n">
+        <v>337</v>
+      </c>
+      <c r="B63" t="n">
+        <v>485</v>
+      </c>
+      <c r="C63" t="n">
+        <v>947</v>
+      </c>
+      <c r="D63" t="n">
+        <v>117</v>
+      </c>
+      <c r="E63" t="n">
+        <v>129</v>
+      </c>
+      <c r="F63" t="n">
+        <v>878</v>
+      </c>
+      <c r="G63" t="n">
+        <v>18957</v>
+      </c>
+      <c r="H63" t="n">
+        <v>182</v>
+      </c>
+      <c r="I63" t="n">
+        <v>432</v>
+      </c>
+      <c r="J63" t="n">
+        <v>801</v>
+      </c>
+      <c r="K63" t="n">
+        <v>882</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1418</v>
+      </c>
+      <c r="M63" t="n">
+        <v>206</v>
+      </c>
+      <c r="N63" t="n">
+        <v>559</v>
+      </c>
+      <c r="O63" t="n">
+        <v>8</v>
+      </c>
+      <c r="P63" t="n">
+        <v>881</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>2020-05-10</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3947,6 +3950,59 @@
         <v>78</v>
       </c>
     </row>
+    <row r="64" spans="1:17">
+      <c r="A64" t="n">
+        <v>340</v>
+      </c>
+      <c r="B64" t="n">
+        <v>520</v>
+      </c>
+      <c r="C64" t="n">
+        <v>978</v>
+      </c>
+      <c r="D64" t="n">
+        <v>124</v>
+      </c>
+      <c r="E64" t="n">
+        <v>135</v>
+      </c>
+      <c r="F64" t="n">
+        <v>933</v>
+      </c>
+      <c r="G64" t="n">
+        <v>20353</v>
+      </c>
+      <c r="H64" t="n">
+        <v>195</v>
+      </c>
+      <c r="I64" t="n">
+        <v>441</v>
+      </c>
+      <c r="J64" t="n">
+        <v>812</v>
+      </c>
+      <c r="K64" t="n">
+        <v>899</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1454</v>
+      </c>
+      <c r="M64" t="n">
+        <v>206</v>
+      </c>
+      <c r="N64" t="n">
+        <v>575</v>
+      </c>
+      <c r="O64" t="n">
+        <v>8</v>
+      </c>
+      <c r="P64" t="n">
+        <v>893</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>2020-05-10</t>
+  </si>
+  <si>
+    <t>2020-05-11</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4003,6 +4006,59 @@
         <v>79</v>
       </c>
     </row>
+    <row r="65" spans="1:17">
+      <c r="A65" t="n">
+        <v>351</v>
+      </c>
+      <c r="B65" t="n">
+        <v>547</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1014</v>
+      </c>
+      <c r="D65" t="n">
+        <v>133</v>
+      </c>
+      <c r="E65" t="n">
+        <v>140</v>
+      </c>
+      <c r="F65" t="n">
+        <v>970</v>
+      </c>
+      <c r="G65" t="n">
+        <v>21317</v>
+      </c>
+      <c r="H65" t="n">
+        <v>216</v>
+      </c>
+      <c r="I65" t="n">
+        <v>454</v>
+      </c>
+      <c r="J65" t="n">
+        <v>814</v>
+      </c>
+      <c r="K65" t="n">
+        <v>932</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1466</v>
+      </c>
+      <c r="M65" t="n">
+        <v>208</v>
+      </c>
+      <c r="N65" t="n">
+        <v>592</v>
+      </c>
+      <c r="O65" t="n">
+        <v>8</v>
+      </c>
+      <c r="P65" t="n">
+        <v>901</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
